--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.185383</v>
+        <v>0.220205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.207513</v>
+        <v>0.238763</v>
       </c>
       <c r="D2" t="n">
-        <v>0.216837</v>
+        <v>0.247373</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.185607</v>
+        <v>0.216777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207817</v>
+        <v>0.235051</v>
       </c>
       <c r="D3" t="n">
-        <v>0.218104</v>
+        <v>0.240574</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.186605</v>
+        <v>0.197742</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208593</v>
+        <v>0.231193</v>
       </c>
       <c r="D4" t="n">
-        <v>0.219175</v>
+        <v>0.246356</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.187124</v>
+        <v>0.20857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209369</v>
+        <v>0.223801</v>
       </c>
       <c r="D5" t="n">
-        <v>0.220505</v>
+        <v>0.235839</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.188247</v>
+        <v>0.203507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211344</v>
+        <v>0.232701</v>
       </c>
       <c r="D6" t="n">
-        <v>0.221362</v>
+        <v>0.244811</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189644</v>
+        <v>0.211472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212097</v>
+        <v>0.232414</v>
       </c>
       <c r="D7" t="n">
-        <v>0.224182</v>
+        <v>0.246586</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.191261</v>
+        <v>0.209385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.213952</v>
+        <v>0.231747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228887</v>
+        <v>0.250414</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.193866</v>
+        <v>0.215729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.217604</v>
+        <v>0.237278</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21728</v>
+        <v>0.231106</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.189625</v>
+        <v>0.216251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.207746</v>
+        <v>0.224653</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217315</v>
+        <v>0.241944</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.189347</v>
+        <v>0.223389</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209665</v>
+        <v>0.230094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.21793</v>
+        <v>0.242743</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.18967</v>
+        <v>0.221015</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20981</v>
+        <v>0.228155</v>
       </c>
       <c r="D12" t="n">
-        <v>0.217787</v>
+        <v>0.237397</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189651</v>
+        <v>0.21519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210476</v>
+        <v>0.225521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.217923</v>
+        <v>0.239376</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.189799</v>
+        <v>0.21904</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210732</v>
+        <v>0.228763</v>
       </c>
       <c r="D14" t="n">
-        <v>0.218541</v>
+        <v>0.233875</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.190668</v>
+        <v>0.210349</v>
       </c>
       <c r="C15" t="n">
-        <v>0.211696</v>
+        <v>0.221698</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21938</v>
+        <v>0.232017</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.190507</v>
+        <v>0.213221</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212256</v>
+        <v>0.234011</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220115</v>
+        <v>0.233735</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.190882</v>
+        <v>0.216179</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212852</v>
+        <v>0.227263</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22137</v>
+        <v>0.238013</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.191645</v>
+        <v>0.219082</v>
       </c>
       <c r="C18" t="n">
-        <v>0.213634</v>
+        <v>0.232822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222222</v>
+        <v>0.242795</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192909</v>
+        <v>0.219719</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215167</v>
+        <v>0.234871</v>
       </c>
       <c r="D19" t="n">
-        <v>0.223529</v>
+        <v>0.249104</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.194129</v>
+        <v>0.229339</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215972</v>
+        <v>0.238934</v>
       </c>
       <c r="D20" t="n">
-        <v>0.22549</v>
+        <v>0.245819</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.196017</v>
+        <v>0.22515</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21763</v>
+        <v>0.24474</v>
       </c>
       <c r="D21" t="n">
-        <v>0.228447</v>
+        <v>0.256614</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.198191</v>
+        <v>0.226264</v>
       </c>
       <c r="C22" t="n">
-        <v>0.220112</v>
+        <v>0.247937</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232987</v>
+        <v>0.258456</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.201494</v>
+        <v>0.226471</v>
       </c>
       <c r="C23" t="n">
-        <v>0.223056</v>
+        <v>0.246455</v>
       </c>
       <c r="D23" t="n">
-        <v>0.219102</v>
+        <v>0.233355</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.19585</v>
+        <v>0.224047</v>
       </c>
       <c r="C24" t="n">
-        <v>0.209433</v>
+        <v>0.213692</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219541</v>
+        <v>0.233824</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.195797</v>
+        <v>0.222259</v>
       </c>
       <c r="C25" t="n">
-        <v>0.209564</v>
+        <v>0.214956</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219748</v>
+        <v>0.229657</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.195992</v>
+        <v>0.217771</v>
       </c>
       <c r="C26" t="n">
-        <v>0.210185</v>
+        <v>0.216219</v>
       </c>
       <c r="D26" t="n">
-        <v>0.219959</v>
+        <v>0.229427</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.195994</v>
+        <v>0.217407</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210438</v>
+        <v>0.216401</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220642</v>
+        <v>0.233315</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.196362</v>
+        <v>0.225902</v>
       </c>
       <c r="C28" t="n">
-        <v>0.211247</v>
+        <v>0.22169</v>
       </c>
       <c r="D28" t="n">
-        <v>0.221022</v>
+        <v>0.239977</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.196625</v>
+        <v>0.220577</v>
       </c>
       <c r="C29" t="n">
-        <v>0.211254</v>
+        <v>0.222077</v>
       </c>
       <c r="D29" t="n">
-        <v>0.221462</v>
+        <v>0.234046</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196864</v>
+        <v>0.223253</v>
       </c>
       <c r="C30" t="n">
-        <v>0.212385</v>
+        <v>0.220079</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222167</v>
+        <v>0.234856</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.197264</v>
+        <v>0.222229</v>
       </c>
       <c r="C31" t="n">
-        <v>0.213096</v>
+        <v>0.222503</v>
       </c>
       <c r="D31" t="n">
-        <v>0.223124</v>
+        <v>0.23479</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198098</v>
+        <v>0.231764</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214233</v>
+        <v>0.220846</v>
       </c>
       <c r="D32" t="n">
-        <v>0.224288</v>
+        <v>0.250919</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199083</v>
+        <v>0.236547</v>
       </c>
       <c r="C33" t="n">
-        <v>0.215302</v>
+        <v>0.236597</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225905</v>
+        <v>0.252652</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.200285</v>
+        <v>0.22202</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21649</v>
+        <v>0.226259</v>
       </c>
       <c r="D34" t="n">
-        <v>0.227744</v>
+        <v>0.242978</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.202461</v>
+        <v>0.227882</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21861</v>
+        <v>0.225266</v>
       </c>
       <c r="D35" t="n">
-        <v>0.230598</v>
+        <v>0.241063</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.20494</v>
+        <v>0.224853</v>
       </c>
       <c r="C36" t="n">
-        <v>0.221448</v>
+        <v>0.236472</v>
       </c>
       <c r="D36" t="n">
-        <v>0.236023</v>
+        <v>0.254917</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.208708</v>
+        <v>0.232512</v>
       </c>
       <c r="C37" t="n">
-        <v>0.22576</v>
+        <v>0.235088</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223464</v>
+        <v>0.240256</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.204984</v>
+        <v>0.245796</v>
       </c>
       <c r="C38" t="n">
-        <v>0.213927</v>
+        <v>0.239831</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224531</v>
+        <v>0.240874</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.20572</v>
+        <v>0.247767</v>
       </c>
       <c r="C39" t="n">
-        <v>0.214925</v>
+        <v>0.235258</v>
       </c>
       <c r="D39" t="n">
-        <v>0.224587</v>
+        <v>0.246656</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.20395</v>
+        <v>0.2559</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215476</v>
+        <v>0.241245</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224483</v>
+        <v>0.24542</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.206755</v>
+        <v>0.24757</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215189</v>
+        <v>0.240311</v>
       </c>
       <c r="D41" t="n">
-        <v>0.224507</v>
+        <v>0.245735</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.206874</v>
+        <v>0.252909</v>
       </c>
       <c r="C42" t="n">
-        <v>0.216189</v>
+        <v>0.235342</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224405</v>
+        <v>0.245583</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.206643</v>
+        <v>0.253775</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21693</v>
+        <v>0.23585</v>
       </c>
       <c r="D43" t="n">
-        <v>0.226664</v>
+        <v>0.245021</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.207752</v>
+        <v>0.245494</v>
       </c>
       <c r="C44" t="n">
-        <v>0.218236</v>
+        <v>0.247377</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22932</v>
+        <v>0.249605</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.206632</v>
+        <v>0.252495</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219015</v>
+        <v>0.254334</v>
       </c>
       <c r="D45" t="n">
-        <v>0.227395</v>
+        <v>0.258243</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208039</v>
+        <v>0.253689</v>
       </c>
       <c r="C46" t="n">
-        <v>0.221901</v>
+        <v>0.249464</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229934</v>
+        <v>0.248685</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.208508</v>
+        <v>0.246564</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219659</v>
+        <v>0.240814</v>
       </c>
       <c r="D47" t="n">
-        <v>0.230548</v>
+        <v>0.252875</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.21314</v>
+        <v>0.257593</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222921</v>
+        <v>0.248583</v>
       </c>
       <c r="D48" t="n">
-        <v>0.233495</v>
+        <v>0.256494</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.214405</v>
+        <v>0.251772</v>
       </c>
       <c r="C49" t="n">
-        <v>0.224707</v>
+        <v>0.249825</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236796</v>
+        <v>0.260181</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.216212</v>
+        <v>0.259646</v>
       </c>
       <c r="C50" t="n">
-        <v>0.229186</v>
+        <v>0.259576</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241887</v>
+        <v>0.26257</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220277</v>
+        <v>0.260774</v>
       </c>
       <c r="C51" t="n">
-        <v>0.233644</v>
+        <v>0.258493</v>
       </c>
       <c r="D51" t="n">
-        <v>0.249886</v>
+        <v>0.289797</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.225836</v>
+        <v>0.271596</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241295</v>
+        <v>0.266365</v>
       </c>
       <c r="D52" t="n">
-        <v>0.250123</v>
+        <v>0.294805</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239701</v>
+        <v>0.301905</v>
       </c>
       <c r="C53" t="n">
-        <v>0.239069</v>
+        <v>0.290394</v>
       </c>
       <c r="D53" t="n">
-        <v>0.250994</v>
+        <v>0.295121</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239374</v>
+        <v>0.296864</v>
       </c>
       <c r="C54" t="n">
-        <v>0.239541</v>
+        <v>0.285395</v>
       </c>
       <c r="D54" t="n">
-        <v>0.250755</v>
+        <v>0.302005</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239406</v>
+        <v>0.303705</v>
       </c>
       <c r="C55" t="n">
-        <v>0.240295</v>
+        <v>0.289358</v>
       </c>
       <c r="D55" t="n">
-        <v>0.252193</v>
+        <v>0.293316</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.239685</v>
+        <v>0.301468</v>
       </c>
       <c r="C56" t="n">
-        <v>0.242151</v>
+        <v>0.295262</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253215</v>
+        <v>0.297531</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.240074</v>
+        <v>0.308631</v>
       </c>
       <c r="C57" t="n">
-        <v>0.243641</v>
+        <v>0.31012</v>
       </c>
       <c r="D57" t="n">
-        <v>0.254239</v>
+        <v>0.315049</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.239923</v>
+        <v>0.307797</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243783</v>
+        <v>0.299909</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254333</v>
+        <v>0.298875</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.240387</v>
+        <v>0.304547</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244885</v>
+        <v>0.295791</v>
       </c>
       <c r="D59" t="n">
-        <v>0.254855</v>
+        <v>0.307069</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.240948</v>
+        <v>0.303321</v>
       </c>
       <c r="C60" t="n">
-        <v>0.246437</v>
+        <v>0.302606</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25697</v>
+        <v>0.304079</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.241596</v>
+        <v>0.303571</v>
       </c>
       <c r="C61" t="n">
-        <v>0.247802</v>
+        <v>0.300033</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258883</v>
+        <v>0.305898</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.242725</v>
+        <v>0.302126</v>
       </c>
       <c r="C62" t="n">
-        <v>0.249783</v>
+        <v>0.296439</v>
       </c>
       <c r="D62" t="n">
-        <v>0.260853</v>
+        <v>0.303226</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2443</v>
+        <v>0.297967</v>
       </c>
       <c r="C63" t="n">
-        <v>0.252535</v>
+        <v>0.30129</v>
       </c>
       <c r="D63" t="n">
-        <v>0.264751</v>
+        <v>0.312666</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246192</v>
+        <v>0.308948</v>
       </c>
       <c r="C64" t="n">
-        <v>0.256059</v>
+        <v>0.303391</v>
       </c>
       <c r="D64" t="n">
-        <v>0.269732</v>
+        <v>0.313305</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249543</v>
+        <v>0.304298</v>
       </c>
       <c r="C65" t="n">
-        <v>0.260138</v>
+        <v>0.311187</v>
       </c>
       <c r="D65" t="n">
-        <v>0.276114</v>
+        <v>0.317382</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.254656</v>
+        <v>0.311642</v>
       </c>
       <c r="C66" t="n">
-        <v>0.268357</v>
+        <v>0.315635</v>
       </c>
       <c r="D66" t="n">
-        <v>0.273031</v>
+        <v>0.319176</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.255606</v>
+        <v>0.332288</v>
       </c>
       <c r="C67" t="n">
-        <v>0.275224</v>
+        <v>0.342437</v>
       </c>
       <c r="D67" t="n">
-        <v>0.273085</v>
+        <v>0.335421</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.25724</v>
+        <v>0.348228</v>
       </c>
       <c r="C68" t="n">
-        <v>0.276503</v>
+        <v>0.342331</v>
       </c>
       <c r="D68" t="n">
-        <v>0.274781</v>
+        <v>0.332506</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.258741</v>
+        <v>0.324575</v>
       </c>
       <c r="C69" t="n">
-        <v>0.277776</v>
+        <v>0.346713</v>
       </c>
       <c r="D69" t="n">
-        <v>0.276111</v>
+        <v>0.335741</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.256833</v>
+        <v>0.327348</v>
       </c>
       <c r="C70" t="n">
-        <v>0.278297</v>
+        <v>0.347363</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276388</v>
+        <v>0.343511</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.257274</v>
+        <v>0.337825</v>
       </c>
       <c r="C71" t="n">
-        <v>0.280737</v>
+        <v>0.355171</v>
       </c>
       <c r="D71" t="n">
-        <v>0.279423</v>
+        <v>0.340039</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.262396</v>
+        <v>0.325118</v>
       </c>
       <c r="C72" t="n">
-        <v>0.28054</v>
+        <v>0.34706</v>
       </c>
       <c r="D72" t="n">
-        <v>0.279404</v>
+        <v>0.335548</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.25894</v>
+        <v>0.328181</v>
       </c>
       <c r="C73" t="n">
-        <v>0.281726</v>
+        <v>0.352191</v>
       </c>
       <c r="D73" t="n">
-        <v>0.283286</v>
+        <v>0.340081</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.261004</v>
+        <v>0.327114</v>
       </c>
       <c r="C74" t="n">
-        <v>0.282924</v>
+        <v>0.354769</v>
       </c>
       <c r="D74" t="n">
-        <v>0.283068</v>
+        <v>0.343361</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.260554</v>
+        <v>0.325315</v>
       </c>
       <c r="C75" t="n">
-        <v>0.285336</v>
+        <v>0.352642</v>
       </c>
       <c r="D75" t="n">
-        <v>0.285769</v>
+        <v>0.34534</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.260622</v>
+        <v>0.328871</v>
       </c>
       <c r="C76" t="n">
-        <v>0.287671</v>
+        <v>0.357443</v>
       </c>
       <c r="D76" t="n">
-        <v>0.290016</v>
+        <v>0.355796</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.265311</v>
+        <v>0.334816</v>
       </c>
       <c r="C77" t="n">
-        <v>0.291509</v>
+        <v>0.361513</v>
       </c>
       <c r="D77" t="n">
-        <v>0.294341</v>
+        <v>0.356685</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.27449</v>
+        <v>0.333441</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2952</v>
+        <v>0.364302</v>
       </c>
       <c r="D78" t="n">
-        <v>0.299975</v>
+        <v>0.358854</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.282328</v>
+        <v>0.339947</v>
       </c>
       <c r="C79" t="n">
-        <v>0.307095</v>
+        <v>0.373379</v>
       </c>
       <c r="D79" t="n">
-        <v>0.307466</v>
+        <v>0.369784</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.283954</v>
+        <v>0.344352</v>
       </c>
       <c r="C80" t="n">
-        <v>0.312665</v>
+        <v>0.378259</v>
       </c>
       <c r="D80" t="n">
-        <v>0.35631</v>
+        <v>0.356712</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.434666</v>
+        <v>0.366778</v>
       </c>
       <c r="C81" t="n">
-        <v>0.287846</v>
+        <v>0.30817</v>
       </c>
       <c r="D81" t="n">
-        <v>0.346467</v>
+        <v>0.364726</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.448057</v>
+        <v>0.381084</v>
       </c>
       <c r="C82" t="n">
-        <v>0.302136</v>
+        <v>0.305971</v>
       </c>
       <c r="D82" t="n">
-        <v>0.341993</v>
+        <v>0.353291</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.385917</v>
+        <v>0.361795</v>
       </c>
       <c r="C83" t="n">
-        <v>0.27906</v>
+        <v>0.31142</v>
       </c>
       <c r="D83" t="n">
-        <v>0.343153</v>
+        <v>0.357295</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.399879</v>
+        <v>0.367387</v>
       </c>
       <c r="C84" t="n">
-        <v>0.304678</v>
+        <v>0.320458</v>
       </c>
       <c r="D84" t="n">
-        <v>0.401885</v>
+        <v>0.365636</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.455774</v>
+        <v>0.370377</v>
       </c>
       <c r="C85" t="n">
-        <v>0.356345</v>
+        <v>0.317733</v>
       </c>
       <c r="D85" t="n">
-        <v>0.397565</v>
+        <v>0.361064</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.443092</v>
+        <v>0.364168</v>
       </c>
       <c r="C86" t="n">
-        <v>0.288947</v>
+        <v>0.318926</v>
       </c>
       <c r="D86" t="n">
-        <v>0.332944</v>
+        <v>0.372515</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.39204</v>
+        <v>0.370978</v>
       </c>
       <c r="C87" t="n">
-        <v>0.290747</v>
+        <v>0.33127</v>
       </c>
       <c r="D87" t="n">
-        <v>0.344294</v>
+        <v>0.371354</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.360522</v>
+        <v>0.374503</v>
       </c>
       <c r="C88" t="n">
-        <v>0.28432</v>
+        <v>0.332102</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325342</v>
+        <v>0.379522</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.359055</v>
+        <v>0.370028</v>
       </c>
       <c r="C89" t="n">
-        <v>0.296649</v>
+        <v>0.335359</v>
       </c>
       <c r="D89" t="n">
-        <v>0.352167</v>
+        <v>0.375222</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.395665</v>
+        <v>0.370807</v>
       </c>
       <c r="C90" t="n">
-        <v>0.295213</v>
+        <v>0.338556</v>
       </c>
       <c r="D90" t="n">
-        <v>0.337268</v>
+        <v>0.372229</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.376249</v>
+        <v>0.363067</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314524</v>
+        <v>0.336667</v>
       </c>
       <c r="D91" t="n">
-        <v>0.36583</v>
+        <v>0.375701</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.379278</v>
+        <v>0.364516</v>
       </c>
       <c r="C92" t="n">
-        <v>0.322241</v>
+        <v>0.344982</v>
       </c>
       <c r="D92" t="n">
-        <v>0.380756</v>
+        <v>0.379871</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.403744</v>
+        <v>0.372539</v>
       </c>
       <c r="C93" t="n">
-        <v>0.336039</v>
+        <v>0.35059</v>
       </c>
       <c r="D93" t="n">
-        <v>0.421928</v>
+        <v>0.387736</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.437741</v>
+        <v>0.376626</v>
       </c>
       <c r="C94" t="n">
-        <v>0.321098</v>
+        <v>0.362616</v>
       </c>
       <c r="D94" t="n">
-        <v>0.501549</v>
+        <v>0.408453</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.550984</v>
+        <v>0.465751</v>
       </c>
       <c r="C95" t="n">
-        <v>0.484726</v>
+        <v>0.374662</v>
       </c>
       <c r="D95" t="n">
-        <v>0.537262</v>
+        <v>0.409089</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.56246</v>
+        <v>0.45279</v>
       </c>
       <c r="C96" t="n">
-        <v>0.498166</v>
+        <v>0.379897</v>
       </c>
       <c r="D96" t="n">
-        <v>0.56011</v>
+        <v>0.399456</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.528468</v>
+        <v>0.438982</v>
       </c>
       <c r="C97" t="n">
-        <v>0.517987</v>
+        <v>0.363713</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5275609999999999</v>
+        <v>0.397752</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.522787</v>
+        <v>0.444054</v>
       </c>
       <c r="C98" t="n">
-        <v>0.532666</v>
+        <v>0.368451</v>
       </c>
       <c r="D98" t="n">
-        <v>0.495897</v>
+        <v>0.407097</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.522766</v>
+        <v>0.463001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.495137</v>
+        <v>0.371782</v>
       </c>
       <c r="D99" t="n">
-        <v>0.572755</v>
+        <v>0.39467</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.541872</v>
+        <v>0.441179</v>
       </c>
       <c r="C100" t="n">
-        <v>0.449602</v>
+        <v>0.38235</v>
       </c>
       <c r="D100" t="n">
-        <v>0.498945</v>
+        <v>0.404297</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.485955</v>
+        <v>0.442776</v>
       </c>
       <c r="C101" t="n">
-        <v>0.413912</v>
+        <v>0.406192</v>
       </c>
       <c r="D101" t="n">
-        <v>0.449178</v>
+        <v>0.403397</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.504454</v>
+        <v>0.482247</v>
       </c>
       <c r="C102" t="n">
-        <v>0.546197</v>
+        <v>0.410154</v>
       </c>
       <c r="D102" t="n">
-        <v>0.547782</v>
+        <v>0.427428</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.513336</v>
+        <v>0.440776</v>
       </c>
       <c r="C103" t="n">
-        <v>0.382799</v>
+        <v>0.399247</v>
       </c>
       <c r="D103" t="n">
-        <v>0.415949</v>
+        <v>0.423592</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.443294</v>
+        <v>0.494306</v>
       </c>
       <c r="C104" t="n">
-        <v>0.377815</v>
+        <v>0.416461</v>
       </c>
       <c r="D104" t="n">
-        <v>0.390068</v>
+        <v>0.443254</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.449806</v>
+        <v>0.472033</v>
       </c>
       <c r="C105" t="n">
-        <v>0.521379</v>
+        <v>0.398866</v>
       </c>
       <c r="D105" t="n">
-        <v>0.52965</v>
+        <v>0.432069</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.508251</v>
+        <v>0.452495</v>
       </c>
       <c r="C106" t="n">
-        <v>0.421292</v>
+        <v>0.439144</v>
       </c>
       <c r="D106" t="n">
-        <v>0.403388</v>
+        <v>0.461307</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.455857</v>
+        <v>0.489849</v>
       </c>
       <c r="C107" t="n">
-        <v>0.438736</v>
+        <v>0.41952</v>
       </c>
       <c r="D107" t="n">
-        <v>0.438826</v>
+        <v>0.457339</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.506961</v>
+        <v>0.435448</v>
       </c>
       <c r="C108" t="n">
-        <v>0.521957</v>
+        <v>0.439689</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602194</v>
+        <v>0.527966</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.497047</v>
+        <v>0.479077</v>
       </c>
       <c r="C109" t="n">
-        <v>0.475413</v>
+        <v>0.453137</v>
       </c>
       <c r="D109" t="n">
-        <v>0.620428</v>
+        <v>0.551555</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5698029999999999</v>
+        <v>0.618815</v>
       </c>
       <c r="C110" t="n">
-        <v>0.617764</v>
+        <v>0.519384</v>
       </c>
       <c r="D110" t="n">
-        <v>0.725276</v>
+        <v>0.53211</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.62543</v>
+        <v>0.64402</v>
       </c>
       <c r="C111" t="n">
-        <v>0.654273</v>
+        <v>0.529582</v>
       </c>
       <c r="D111" t="n">
-        <v>0.702693</v>
+        <v>0.5612009999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.578956</v>
+        <v>0.717228</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6944939999999999</v>
+        <v>0.61686</v>
       </c>
       <c r="D112" t="n">
-        <v>0.73215</v>
+        <v>0.632973</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.64242</v>
+        <v>0.698981</v>
       </c>
       <c r="C113" t="n">
-        <v>0.656334</v>
+        <v>0.624155</v>
       </c>
       <c r="D113" t="n">
-        <v>0.661095</v>
+        <v>0.656244</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.590384</v>
+        <v>0.704823</v>
       </c>
       <c r="C114" t="n">
-        <v>0.649984</v>
+        <v>0.607552</v>
       </c>
       <c r="D114" t="n">
-        <v>0.606508</v>
+        <v>0.639716</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5832270000000001</v>
+        <v>0.697623</v>
       </c>
       <c r="C115" t="n">
-        <v>0.531063</v>
+        <v>0.589681</v>
       </c>
       <c r="D115" t="n">
-        <v>0.582412</v>
+        <v>0.558966</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.55203</v>
+        <v>0.613503</v>
       </c>
       <c r="C116" t="n">
-        <v>0.550509</v>
+        <v>0.569503</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6140600000000001</v>
+        <v>0.5754359999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.551107</v>
+        <v>0.630277</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5761579999999999</v>
+        <v>0.5538149999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.607225</v>
+        <v>0.565356</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5461549999999999</v>
+        <v>0.609096</v>
       </c>
       <c r="C118" t="n">
-        <v>0.578</v>
+        <v>0.548995</v>
       </c>
       <c r="D118" t="n">
-        <v>0.58941</v>
+        <v>0.568748</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.558638</v>
+        <v>0.615276</v>
       </c>
       <c r="C119" t="n">
-        <v>0.647649</v>
+        <v>0.552997</v>
       </c>
       <c r="D119" t="n">
-        <v>0.744695</v>
+        <v>0.578335</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.546427</v>
+        <v>0.635477</v>
       </c>
       <c r="C120" t="n">
-        <v>0.63648</v>
+        <v>0.564782</v>
       </c>
       <c r="D120" t="n">
-        <v>0.644252</v>
+        <v>0.573946</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.541991</v>
+        <v>0.617325</v>
       </c>
       <c r="C121" t="n">
-        <v>0.628615</v>
+        <v>0.550063</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5756869999999999</v>
+        <v>0.578862</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.530105</v>
+        <v>0.62759</v>
       </c>
       <c r="C122" t="n">
-        <v>0.59633</v>
+        <v>0.592467</v>
       </c>
       <c r="D122" t="n">
-        <v>0.654726</v>
+        <v>0.583692</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.574083</v>
+        <v>0.62435</v>
       </c>
       <c r="C123" t="n">
-        <v>0.625355</v>
+        <v>0.584935</v>
       </c>
       <c r="D123" t="n">
-        <v>0.742186</v>
+        <v>0.668756</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.678766</v>
+        <v>0.74731</v>
       </c>
       <c r="C124" t="n">
-        <v>0.659179</v>
+        <v>0.64547</v>
       </c>
       <c r="D124" t="n">
-        <v>0.727647</v>
+        <v>0.68252</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.691848</v>
+        <v>0.741623</v>
       </c>
       <c r="C125" t="n">
-        <v>0.666982</v>
+        <v>0.681455</v>
       </c>
       <c r="D125" t="n">
-        <v>0.695211</v>
+        <v>0.6876100000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.627237</v>
+        <v>0.765505</v>
       </c>
       <c r="C126" t="n">
-        <v>0.656903</v>
+        <v>0.6851429999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.797323</v>
+        <v>0.685725</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6081220000000001</v>
+        <v>0.778214</v>
       </c>
       <c r="C127" t="n">
-        <v>0.657123</v>
+        <v>0.670879</v>
       </c>
       <c r="D127" t="n">
-        <v>0.741178</v>
+        <v>0.728617</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.639138</v>
+        <v>0.742846</v>
       </c>
       <c r="C128" t="n">
-        <v>0.711487</v>
+        <v>0.663808</v>
       </c>
       <c r="D128" t="n">
-        <v>0.736914</v>
+        <v>0.708359</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.632568</v>
+        <v>0.730593</v>
       </c>
       <c r="C129" t="n">
-        <v>0.689036</v>
+        <v>0.667053</v>
       </c>
       <c r="D129" t="n">
-        <v>0.781694</v>
+        <v>0.713228</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.64813</v>
+        <v>0.74417</v>
       </c>
       <c r="C130" t="n">
-        <v>0.707103</v>
+        <v>0.684851</v>
       </c>
       <c r="D130" t="n">
-        <v>0.746709</v>
+        <v>0.717751</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6033500000000001</v>
+        <v>0.768054</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6603290000000001</v>
+        <v>0.733484</v>
       </c>
       <c r="D131" t="n">
-        <v>0.689246</v>
+        <v>0.743802</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6096279999999999</v>
+        <v>0.776802</v>
       </c>
       <c r="C132" t="n">
-        <v>0.687039</v>
+        <v>0.7085050000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.72965</v>
+        <v>0.713221</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.666418</v>
+        <v>0.740358</v>
       </c>
       <c r="C133" t="n">
-        <v>0.737206</v>
+        <v>0.696814</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8171620000000001</v>
+        <v>0.720535</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.722901</v>
+        <v>0.75022</v>
       </c>
       <c r="C134" t="n">
-        <v>0.720435</v>
+        <v>0.764314</v>
       </c>
       <c r="D134" t="n">
-        <v>0.776553</v>
+        <v>0.736317</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6843399999999999</v>
+        <v>0.749113</v>
       </c>
       <c r="C135" t="n">
-        <v>0.759125</v>
+        <v>0.718391</v>
       </c>
       <c r="D135" t="n">
-        <v>0.784866</v>
+        <v>0.759176</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.691974</v>
+        <v>0.763769</v>
       </c>
       <c r="C136" t="n">
-        <v>0.798233</v>
+        <v>0.759852</v>
       </c>
       <c r="D136" t="n">
-        <v>0.837244</v>
+        <v>0.755915</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7238830000000001</v>
+        <v>0.7589089999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.809383</v>
+        <v>0.714541</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8127220000000001</v>
+        <v>0.796383</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.767194</v>
+        <v>0.9020629999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.738269</v>
+        <v>0.749571</v>
       </c>
       <c r="D138" t="n">
-        <v>0.830338</v>
+        <v>0.825336</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7875</v>
+        <v>0.914874</v>
       </c>
       <c r="C139" t="n">
-        <v>0.739426</v>
+        <v>0.750235</v>
       </c>
       <c r="D139" t="n">
-        <v>0.815751</v>
+        <v>0.8258760000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.791062</v>
+        <v>0.9214909999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.752214</v>
+        <v>0.748449</v>
       </c>
       <c r="D140" t="n">
-        <v>0.825283</v>
+        <v>0.826676</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.758329</v>
+        <v>0.918982</v>
       </c>
       <c r="C141" t="n">
-        <v>0.772877</v>
+        <v>0.779748</v>
       </c>
       <c r="D141" t="n">
-        <v>0.822431</v>
+        <v>0.838436</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.770876</v>
+        <v>0.913472</v>
       </c>
       <c r="C142" t="n">
-        <v>0.746614</v>
+        <v>0.772401</v>
       </c>
       <c r="D142" t="n">
-        <v>0.828008</v>
+        <v>0.830725</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.737333</v>
+        <v>0.925584</v>
       </c>
       <c r="C143" t="n">
-        <v>0.761084</v>
+        <v>0.787764</v>
       </c>
       <c r="D143" t="n">
-        <v>0.854793</v>
+        <v>0.85666</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.220205</v>
+        <v>0.184188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238763</v>
+        <v>0.199932</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247373</v>
+        <v>0.210236</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.216777</v>
+        <v>0.183847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235051</v>
+        <v>0.200515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.240574</v>
+        <v>0.210718</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197742</v>
+        <v>0.184437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.231193</v>
+        <v>0.201423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246356</v>
+        <v>0.21208</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.20857</v>
+        <v>0.185244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223801</v>
+        <v>0.203083</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235839</v>
+        <v>0.213874</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.203507</v>
+        <v>0.185793</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232701</v>
+        <v>0.204944</v>
       </c>
       <c r="D6" t="n">
-        <v>0.244811</v>
+        <v>0.216189</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.211472</v>
+        <v>0.187529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232414</v>
+        <v>0.207168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246586</v>
+        <v>0.220206</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209385</v>
+        <v>0.189575</v>
       </c>
       <c r="C8" t="n">
-        <v>0.231747</v>
+        <v>0.210797</v>
       </c>
       <c r="D8" t="n">
-        <v>0.250414</v>
+        <v>0.226475</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.215729</v>
+        <v>0.193692</v>
       </c>
       <c r="C9" t="n">
-        <v>0.237278</v>
+        <v>0.216003</v>
       </c>
       <c r="D9" t="n">
-        <v>0.231106</v>
+        <v>0.207405</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.216251</v>
+        <v>0.190678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224653</v>
+        <v>0.19863</v>
       </c>
       <c r="D10" t="n">
-        <v>0.241944</v>
+        <v>0.207443</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.223389</v>
+        <v>0.190676</v>
       </c>
       <c r="C11" t="n">
-        <v>0.230094</v>
+        <v>0.199037</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242743</v>
+        <v>0.207675</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221015</v>
+        <v>0.190972</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228155</v>
+        <v>0.199476</v>
       </c>
       <c r="D12" t="n">
-        <v>0.237397</v>
+        <v>0.207991</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.21519</v>
+        <v>0.190653</v>
       </c>
       <c r="C13" t="n">
-        <v>0.225521</v>
+        <v>0.199801</v>
       </c>
       <c r="D13" t="n">
-        <v>0.239376</v>
+        <v>0.208206</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21904</v>
+        <v>0.191095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.228763</v>
+        <v>0.200178</v>
       </c>
       <c r="D14" t="n">
-        <v>0.233875</v>
+        <v>0.208665</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210349</v>
+        <v>0.191295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.221698</v>
+        <v>0.200806</v>
       </c>
       <c r="D15" t="n">
-        <v>0.232017</v>
+        <v>0.209295</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.213221</v>
+        <v>0.19142</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234011</v>
+        <v>0.201406</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233735</v>
+        <v>0.209942</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.216179</v>
+        <v>0.193538</v>
       </c>
       <c r="C17" t="n">
-        <v>0.227263</v>
+        <v>0.205428</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238013</v>
+        <v>0.214298</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.219082</v>
+        <v>0.193909</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232822</v>
+        <v>0.206291</v>
       </c>
       <c r="D18" t="n">
-        <v>0.242795</v>
+        <v>0.215392</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.219719</v>
+        <v>0.194777</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234871</v>
+        <v>0.207557</v>
       </c>
       <c r="D19" t="n">
-        <v>0.249104</v>
+        <v>0.217238</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.229339</v>
+        <v>0.195733</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238934</v>
+        <v>0.208843</v>
       </c>
       <c r="D20" t="n">
-        <v>0.245819</v>
+        <v>0.219137</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22515</v>
+        <v>0.197377</v>
       </c>
       <c r="C21" t="n">
-        <v>0.24474</v>
+        <v>0.211118</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256614</v>
+        <v>0.222316</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226264</v>
+        <v>0.199822</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247937</v>
+        <v>0.213837</v>
       </c>
       <c r="D22" t="n">
-        <v>0.258456</v>
+        <v>0.227188</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226471</v>
+        <v>0.203167</v>
       </c>
       <c r="C23" t="n">
-        <v>0.246455</v>
+        <v>0.218712</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233355</v>
+        <v>0.21124</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.224047</v>
+        <v>0.201731</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213692</v>
+        <v>0.197571</v>
       </c>
       <c r="D24" t="n">
-        <v>0.233824</v>
+        <v>0.211593</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.222259</v>
+        <v>0.201934</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214956</v>
+        <v>0.1979</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229657</v>
+        <v>0.211756</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.217771</v>
+        <v>0.201954</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216219</v>
+        <v>0.198422</v>
       </c>
       <c r="D26" t="n">
-        <v>0.229427</v>
+        <v>0.212046</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217407</v>
+        <v>0.202</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216401</v>
+        <v>0.198962</v>
       </c>
       <c r="D27" t="n">
-        <v>0.233315</v>
+        <v>0.212509</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225902</v>
+        <v>0.202192</v>
       </c>
       <c r="C28" t="n">
-        <v>0.22169</v>
+        <v>0.199619</v>
       </c>
       <c r="D28" t="n">
-        <v>0.239977</v>
+        <v>0.213075</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220577</v>
+        <v>0.202318</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222077</v>
+        <v>0.200084</v>
       </c>
       <c r="D29" t="n">
-        <v>0.234046</v>
+        <v>0.213573</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.223253</v>
+        <v>0.202547</v>
       </c>
       <c r="C30" t="n">
-        <v>0.220079</v>
+        <v>0.200956</v>
       </c>
       <c r="D30" t="n">
-        <v>0.234856</v>
+        <v>0.214344</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.222229</v>
+        <v>0.202896</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222503</v>
+        <v>0.201852</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23479</v>
+        <v>0.215145</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.231764</v>
+        <v>0.203471</v>
       </c>
       <c r="C32" t="n">
-        <v>0.220846</v>
+        <v>0.202986</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250919</v>
+        <v>0.216362</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.236547</v>
+        <v>0.204109</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236597</v>
+        <v>0.204331</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252652</v>
+        <v>0.217942</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.22202</v>
+        <v>0.20524</v>
       </c>
       <c r="C34" t="n">
-        <v>0.226259</v>
+        <v>0.205982</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242978</v>
+        <v>0.219881</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.227882</v>
+        <v>0.206698</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225266</v>
+        <v>0.208097</v>
       </c>
       <c r="D35" t="n">
-        <v>0.241063</v>
+        <v>0.222813</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.224853</v>
+        <v>0.209044</v>
       </c>
       <c r="C36" t="n">
-        <v>0.236472</v>
+        <v>0.211076</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254917</v>
+        <v>0.227664</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.232512</v>
+        <v>0.212694</v>
       </c>
       <c r="C37" t="n">
-        <v>0.235088</v>
+        <v>0.215912</v>
       </c>
       <c r="D37" t="n">
-        <v>0.240256</v>
+        <v>0.222817</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245796</v>
+        <v>0.226351</v>
       </c>
       <c r="C38" t="n">
-        <v>0.239831</v>
+        <v>0.217719</v>
       </c>
       <c r="D38" t="n">
-        <v>0.240874</v>
+        <v>0.222813</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.247767</v>
+        <v>0.226725</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235258</v>
+        <v>0.217831</v>
       </c>
       <c r="D39" t="n">
-        <v>0.246656</v>
+        <v>0.224568</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2559</v>
+        <v>0.226942</v>
       </c>
       <c r="C40" t="n">
-        <v>0.241245</v>
+        <v>0.21868</v>
       </c>
       <c r="D40" t="n">
-        <v>0.24542</v>
+        <v>0.225098</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.24757</v>
+        <v>0.227441</v>
       </c>
       <c r="C41" t="n">
-        <v>0.240311</v>
+        <v>0.220284</v>
       </c>
       <c r="D41" t="n">
-        <v>0.245735</v>
+        <v>0.226394</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.252909</v>
+        <v>0.227239</v>
       </c>
       <c r="C42" t="n">
-        <v>0.235342</v>
+        <v>0.219878</v>
       </c>
       <c r="D42" t="n">
-        <v>0.245583</v>
+        <v>0.226475</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.253775</v>
+        <v>0.228952</v>
       </c>
       <c r="C43" t="n">
-        <v>0.23585</v>
+        <v>0.222624</v>
       </c>
       <c r="D43" t="n">
-        <v>0.245021</v>
+        <v>0.228362</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.245494</v>
+        <v>0.229737</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247377</v>
+        <v>0.22238</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249605</v>
+        <v>0.228457</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.252495</v>
+        <v>0.230173</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254334</v>
+        <v>0.222637</v>
       </c>
       <c r="D45" t="n">
-        <v>0.258243</v>
+        <v>0.229966</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253689</v>
+        <v>0.231344</v>
       </c>
       <c r="C46" t="n">
-        <v>0.249464</v>
+        <v>0.224346</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248685</v>
+        <v>0.230214</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246564</v>
+        <v>0.231298</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240814</v>
+        <v>0.227491</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252875</v>
+        <v>0.232389</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257593</v>
+        <v>0.232184</v>
       </c>
       <c r="C48" t="n">
-        <v>0.248583</v>
+        <v>0.228832</v>
       </c>
       <c r="D48" t="n">
-        <v>0.256494</v>
+        <v>0.235133</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.251772</v>
+        <v>0.23342</v>
       </c>
       <c r="C49" t="n">
-        <v>0.249825</v>
+        <v>0.230864</v>
       </c>
       <c r="D49" t="n">
-        <v>0.260181</v>
+        <v>0.238569</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.259646</v>
+        <v>0.235194</v>
       </c>
       <c r="C50" t="n">
-        <v>0.259576</v>
+        <v>0.234074</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26257</v>
+        <v>0.240779</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.260774</v>
+        <v>0.238098</v>
       </c>
       <c r="C51" t="n">
-        <v>0.258493</v>
+        <v>0.236635</v>
       </c>
       <c r="D51" t="n">
-        <v>0.289797</v>
+        <v>0.2694</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.271596</v>
+        <v>0.242962</v>
       </c>
       <c r="C52" t="n">
-        <v>0.266365</v>
+        <v>0.243345</v>
       </c>
       <c r="D52" t="n">
-        <v>0.294805</v>
+        <v>0.270408</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301905</v>
+        <v>0.277312</v>
       </c>
       <c r="C53" t="n">
-        <v>0.290394</v>
+        <v>0.266092</v>
       </c>
       <c r="D53" t="n">
-        <v>0.295121</v>
+        <v>0.271153</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.296864</v>
+        <v>0.27721</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285395</v>
+        <v>0.267712</v>
       </c>
       <c r="D54" t="n">
-        <v>0.302005</v>
+        <v>0.273038</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.303705</v>
+        <v>0.277921</v>
       </c>
       <c r="C55" t="n">
-        <v>0.289358</v>
+        <v>0.269285</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293316</v>
+        <v>0.274455</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.301468</v>
+        <v>0.277624</v>
       </c>
       <c r="C56" t="n">
-        <v>0.295262</v>
+        <v>0.270166</v>
       </c>
       <c r="D56" t="n">
-        <v>0.297531</v>
+        <v>0.274929</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.308631</v>
+        <v>0.278054</v>
       </c>
       <c r="C57" t="n">
-        <v>0.31012</v>
+        <v>0.271293</v>
       </c>
       <c r="D57" t="n">
-        <v>0.315049</v>
+        <v>0.275929</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.307797</v>
+        <v>0.27803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.299909</v>
+        <v>0.272573</v>
       </c>
       <c r="D58" t="n">
-        <v>0.298875</v>
+        <v>0.277059</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304547</v>
+        <v>0.278317</v>
       </c>
       <c r="C59" t="n">
-        <v>0.295791</v>
+        <v>0.273922</v>
       </c>
       <c r="D59" t="n">
-        <v>0.307069</v>
+        <v>0.278349</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303321</v>
+        <v>0.278013</v>
       </c>
       <c r="C60" t="n">
-        <v>0.302606</v>
+        <v>0.275547</v>
       </c>
       <c r="D60" t="n">
-        <v>0.304079</v>
+        <v>0.281331</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.303571</v>
+        <v>0.278712</v>
       </c>
       <c r="C61" t="n">
-        <v>0.300033</v>
+        <v>0.276625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.305898</v>
+        <v>0.281416</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.302126</v>
+        <v>0.279324</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296439</v>
+        <v>0.27821</v>
       </c>
       <c r="D62" t="n">
-        <v>0.303226</v>
+        <v>0.285728</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.297967</v>
+        <v>0.281908</v>
       </c>
       <c r="C63" t="n">
-        <v>0.30129</v>
+        <v>0.280518</v>
       </c>
       <c r="D63" t="n">
-        <v>0.312666</v>
+        <v>0.28675</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.308948</v>
+        <v>0.2819</v>
       </c>
       <c r="C64" t="n">
-        <v>0.303391</v>
+        <v>0.284179</v>
       </c>
       <c r="D64" t="n">
-        <v>0.313305</v>
+        <v>0.291294</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.304298</v>
+        <v>0.283737</v>
       </c>
       <c r="C65" t="n">
-        <v>0.311187</v>
+        <v>0.288146</v>
       </c>
       <c r="D65" t="n">
-        <v>0.317382</v>
+        <v>0.296996</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.311642</v>
+        <v>0.28823</v>
       </c>
       <c r="C66" t="n">
-        <v>0.315635</v>
+        <v>0.294535</v>
       </c>
       <c r="D66" t="n">
-        <v>0.319176</v>
+        <v>0.302889</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.332288</v>
+        <v>0.308008</v>
       </c>
       <c r="C67" t="n">
-        <v>0.342437</v>
+        <v>0.314724</v>
       </c>
       <c r="D67" t="n">
-        <v>0.335421</v>
+        <v>0.305921</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.348228</v>
+        <v>0.314412</v>
       </c>
       <c r="C68" t="n">
-        <v>0.342331</v>
+        <v>0.31387</v>
       </c>
       <c r="D68" t="n">
-        <v>0.332506</v>
+        <v>0.305024</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.324575</v>
+        <v>0.301233</v>
       </c>
       <c r="C69" t="n">
-        <v>0.346713</v>
+        <v>0.317113</v>
       </c>
       <c r="D69" t="n">
-        <v>0.335741</v>
+        <v>0.307833</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.327348</v>
+        <v>0.297988</v>
       </c>
       <c r="C70" t="n">
-        <v>0.347363</v>
+        <v>0.315944</v>
       </c>
       <c r="D70" t="n">
-        <v>0.343511</v>
+        <v>0.307059</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.337825</v>
+        <v>0.298006</v>
       </c>
       <c r="C71" t="n">
-        <v>0.355171</v>
+        <v>0.317851</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340039</v>
+        <v>0.309078</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.325118</v>
+        <v>0.29814</v>
       </c>
       <c r="C72" t="n">
-        <v>0.34706</v>
+        <v>0.318145</v>
       </c>
       <c r="D72" t="n">
-        <v>0.335548</v>
+        <v>0.311314</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.328181</v>
+        <v>0.299591</v>
       </c>
       <c r="C73" t="n">
-        <v>0.352191</v>
+        <v>0.320764</v>
       </c>
       <c r="D73" t="n">
-        <v>0.340081</v>
+        <v>0.315634</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.327114</v>
+        <v>0.300252</v>
       </c>
       <c r="C74" t="n">
-        <v>0.354769</v>
+        <v>0.321385</v>
       </c>
       <c r="D74" t="n">
-        <v>0.343361</v>
+        <v>0.316888</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.325315</v>
+        <v>0.301846</v>
       </c>
       <c r="C75" t="n">
-        <v>0.352642</v>
+        <v>0.323974</v>
       </c>
       <c r="D75" t="n">
-        <v>0.34534</v>
+        <v>0.324083</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.328871</v>
+        <v>0.30545</v>
       </c>
       <c r="C76" t="n">
-        <v>0.357443</v>
+        <v>0.32709</v>
       </c>
       <c r="D76" t="n">
-        <v>0.355796</v>
+        <v>0.329616</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.334816</v>
+        <v>0.304512</v>
       </c>
       <c r="C77" t="n">
-        <v>0.361513</v>
+        <v>0.339173</v>
       </c>
       <c r="D77" t="n">
-        <v>0.356685</v>
+        <v>0.33071</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.333441</v>
+        <v>0.314136</v>
       </c>
       <c r="C78" t="n">
-        <v>0.364302</v>
+        <v>0.334411</v>
       </c>
       <c r="D78" t="n">
-        <v>0.358854</v>
+        <v>0.342106</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.339947</v>
+        <v>0.311527</v>
       </c>
       <c r="C79" t="n">
-        <v>0.373379</v>
+        <v>0.339373</v>
       </c>
       <c r="D79" t="n">
-        <v>0.369784</v>
+        <v>0.341702</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.344352</v>
+        <v>0.311019</v>
       </c>
       <c r="C80" t="n">
-        <v>0.378259</v>
+        <v>0.339157</v>
       </c>
       <c r="D80" t="n">
-        <v>0.356712</v>
+        <v>0.330541</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.366778</v>
+        <v>0.384623</v>
       </c>
       <c r="C81" t="n">
-        <v>0.30817</v>
+        <v>0.29749</v>
       </c>
       <c r="D81" t="n">
-        <v>0.364726</v>
+        <v>0.354965</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.381084</v>
+        <v>0.479231</v>
       </c>
       <c r="C82" t="n">
-        <v>0.305971</v>
+        <v>0.33021</v>
       </c>
       <c r="D82" t="n">
-        <v>0.353291</v>
+        <v>0.357281</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.361795</v>
+        <v>0.372515</v>
       </c>
       <c r="C83" t="n">
-        <v>0.31142</v>
+        <v>0.297824</v>
       </c>
       <c r="D83" t="n">
-        <v>0.357295</v>
+        <v>0.343771</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.367387</v>
+        <v>0.368898</v>
       </c>
       <c r="C84" t="n">
-        <v>0.320458</v>
+        <v>0.294861</v>
       </c>
       <c r="D84" t="n">
-        <v>0.365636</v>
+        <v>0.34414</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.370377</v>
+        <v>0.40566</v>
       </c>
       <c r="C85" t="n">
-        <v>0.317733</v>
+        <v>0.311015</v>
       </c>
       <c r="D85" t="n">
-        <v>0.361064</v>
+        <v>0.347699</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.364168</v>
+        <v>0.374407</v>
       </c>
       <c r="C86" t="n">
-        <v>0.318926</v>
+        <v>0.29988</v>
       </c>
       <c r="D86" t="n">
-        <v>0.372515</v>
+        <v>0.338672</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370978</v>
+        <v>0.368525</v>
       </c>
       <c r="C87" t="n">
-        <v>0.33127</v>
+        <v>0.30192</v>
       </c>
       <c r="D87" t="n">
-        <v>0.371354</v>
+        <v>0.342396</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.374503</v>
+        <v>0.367948</v>
       </c>
       <c r="C88" t="n">
-        <v>0.332102</v>
+        <v>0.309774</v>
       </c>
       <c r="D88" t="n">
-        <v>0.379522</v>
+        <v>0.37813</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.370028</v>
+        <v>0.393429</v>
       </c>
       <c r="C89" t="n">
-        <v>0.335359</v>
+        <v>0.339699</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375222</v>
+        <v>0.387585</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.370807</v>
+        <v>0.398541</v>
       </c>
       <c r="C90" t="n">
-        <v>0.338556</v>
+        <v>0.317969</v>
       </c>
       <c r="D90" t="n">
-        <v>0.372229</v>
+        <v>0.354607</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.363067</v>
+        <v>0.363869</v>
       </c>
       <c r="C91" t="n">
-        <v>0.336667</v>
+        <v>0.322497</v>
       </c>
       <c r="D91" t="n">
-        <v>0.375701</v>
+        <v>0.379869</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.364516</v>
+        <v>0.431752</v>
       </c>
       <c r="C92" t="n">
-        <v>0.344982</v>
+        <v>0.349677</v>
       </c>
       <c r="D92" t="n">
-        <v>0.379871</v>
+        <v>0.400075</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.372539</v>
+        <v>0.427839</v>
       </c>
       <c r="C93" t="n">
-        <v>0.35059</v>
+        <v>0.36408</v>
       </c>
       <c r="D93" t="n">
-        <v>0.387736</v>
+        <v>0.414976</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.376626</v>
+        <v>0.479536</v>
       </c>
       <c r="C94" t="n">
-        <v>0.362616</v>
+        <v>0.391726</v>
       </c>
       <c r="D94" t="n">
-        <v>0.408453</v>
+        <v>0.498627</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.465751</v>
+        <v>0.6361019999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.374662</v>
+        <v>0.420147</v>
       </c>
       <c r="D95" t="n">
-        <v>0.409089</v>
+        <v>0.417328</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.45279</v>
+        <v>0.522334</v>
       </c>
       <c r="C96" t="n">
-        <v>0.379897</v>
+        <v>0.385634</v>
       </c>
       <c r="D96" t="n">
-        <v>0.399456</v>
+        <v>0.43939</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.438982</v>
+        <v>0.5234529999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.363713</v>
+        <v>0.388219</v>
       </c>
       <c r="D97" t="n">
-        <v>0.397752</v>
+        <v>0.386571</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.444054</v>
+        <v>0.473172</v>
       </c>
       <c r="C98" t="n">
-        <v>0.368451</v>
+        <v>0.372407</v>
       </c>
       <c r="D98" t="n">
-        <v>0.407097</v>
+        <v>0.391581</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.463001</v>
+        <v>0.501925</v>
       </c>
       <c r="C99" t="n">
-        <v>0.371782</v>
+        <v>0.387006</v>
       </c>
       <c r="D99" t="n">
-        <v>0.39467</v>
+        <v>0.40554</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.441179</v>
+        <v>0.515127</v>
       </c>
       <c r="C100" t="n">
-        <v>0.38235</v>
+        <v>0.410153</v>
       </c>
       <c r="D100" t="n">
-        <v>0.404297</v>
+        <v>0.463313</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.442776</v>
+        <v>0.588903</v>
       </c>
       <c r="C101" t="n">
-        <v>0.406192</v>
+        <v>0.488474</v>
       </c>
       <c r="D101" t="n">
-        <v>0.403397</v>
+        <v>0.496944</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.482247</v>
+        <v>0.632636</v>
       </c>
       <c r="C102" t="n">
-        <v>0.410154</v>
+        <v>0.471447</v>
       </c>
       <c r="D102" t="n">
-        <v>0.427428</v>
+        <v>0.466294</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.440776</v>
+        <v>0.598819</v>
       </c>
       <c r="C103" t="n">
-        <v>0.399247</v>
+        <v>0.485819</v>
       </c>
       <c r="D103" t="n">
-        <v>0.423592</v>
+        <v>0.446178</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.494306</v>
+        <v>0.513701</v>
       </c>
       <c r="C104" t="n">
-        <v>0.416461</v>
+        <v>0.475015</v>
       </c>
       <c r="D104" t="n">
-        <v>0.443254</v>
+        <v>0.457176</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.472033</v>
+        <v>0.539251</v>
       </c>
       <c r="C105" t="n">
-        <v>0.398866</v>
+        <v>0.50402</v>
       </c>
       <c r="D105" t="n">
-        <v>0.432069</v>
+        <v>0.495305</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.452495</v>
+        <v>0.5645250000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.439144</v>
+        <v>0.496712</v>
       </c>
       <c r="D106" t="n">
-        <v>0.461307</v>
+        <v>0.473116</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.489849</v>
+        <v>0.60039</v>
       </c>
       <c r="C107" t="n">
-        <v>0.41952</v>
+        <v>0.469929</v>
       </c>
       <c r="D107" t="n">
-        <v>0.457339</v>
+        <v>0.485955</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.435448</v>
+        <v>0.593387</v>
       </c>
       <c r="C108" t="n">
-        <v>0.439689</v>
+        <v>0.492708</v>
       </c>
       <c r="D108" t="n">
-        <v>0.527966</v>
+        <v>0.614392</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.479077</v>
+        <v>0.598162</v>
       </c>
       <c r="C109" t="n">
-        <v>0.453137</v>
+        <v>0.480843</v>
       </c>
       <c r="D109" t="n">
-        <v>0.551555</v>
+        <v>0.582461</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.618815</v>
+        <v>0.676153</v>
       </c>
       <c r="C110" t="n">
-        <v>0.519384</v>
+        <v>0.596382</v>
       </c>
       <c r="D110" t="n">
-        <v>0.53211</v>
+        <v>0.602003</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.64402</v>
+        <v>0.7117520000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.529582</v>
+        <v>0.597209</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5612009999999999</v>
+        <v>0.633529</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.717228</v>
+        <v>0.724371</v>
       </c>
       <c r="C112" t="n">
-        <v>0.61686</v>
+        <v>0.595996</v>
       </c>
       <c r="D112" t="n">
-        <v>0.632973</v>
+        <v>0.665347</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.698981</v>
+        <v>0.746207</v>
       </c>
       <c r="C113" t="n">
-        <v>0.624155</v>
+        <v>0.638684</v>
       </c>
       <c r="D113" t="n">
-        <v>0.656244</v>
+        <v>0.605463</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.704823</v>
+        <v>0.668422</v>
       </c>
       <c r="C114" t="n">
-        <v>0.607552</v>
+        <v>0.540327</v>
       </c>
       <c r="D114" t="n">
-        <v>0.639716</v>
+        <v>0.6392910000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.697623</v>
+        <v>0.663004</v>
       </c>
       <c r="C115" t="n">
-        <v>0.589681</v>
+        <v>0.582897</v>
       </c>
       <c r="D115" t="n">
-        <v>0.558966</v>
+        <v>0.627464</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.613503</v>
+        <v>0.73186</v>
       </c>
       <c r="C116" t="n">
-        <v>0.569503</v>
+        <v>0.632792</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5754359999999999</v>
+        <v>0.661704</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.630277</v>
+        <v>0.773015</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5538149999999999</v>
+        <v>0.696115</v>
       </c>
       <c r="D117" t="n">
-        <v>0.565356</v>
+        <v>0.726411</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.609096</v>
+        <v>0.69846</v>
       </c>
       <c r="C118" t="n">
-        <v>0.548995</v>
+        <v>0.575184</v>
       </c>
       <c r="D118" t="n">
-        <v>0.568748</v>
+        <v>0.61216</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.615276</v>
+        <v>0.687133</v>
       </c>
       <c r="C119" t="n">
-        <v>0.552997</v>
+        <v>0.608257</v>
       </c>
       <c r="D119" t="n">
-        <v>0.578335</v>
+        <v>0.627062</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.635477</v>
+        <v>0.6987139999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.564782</v>
+        <v>0.618054</v>
       </c>
       <c r="D120" t="n">
-        <v>0.573946</v>
+        <v>0.657673</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.617325</v>
+        <v>0.684198</v>
       </c>
       <c r="C121" t="n">
-        <v>0.550063</v>
+        <v>0.603236</v>
       </c>
       <c r="D121" t="n">
-        <v>0.578862</v>
+        <v>0.646862</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.62759</v>
+        <v>0.71193</v>
       </c>
       <c r="C122" t="n">
-        <v>0.592467</v>
+        <v>0.59297</v>
       </c>
       <c r="D122" t="n">
-        <v>0.583692</v>
+        <v>0.647707</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.62435</v>
+        <v>0.664592</v>
       </c>
       <c r="C123" t="n">
-        <v>0.584935</v>
+        <v>0.642281</v>
       </c>
       <c r="D123" t="n">
-        <v>0.668756</v>
+        <v>0.74168</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.74731</v>
+        <v>0.841121</v>
       </c>
       <c r="C124" t="n">
-        <v>0.64547</v>
+        <v>0.6899380000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.68252</v>
+        <v>0.74822</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.741623</v>
+        <v>0.775206</v>
       </c>
       <c r="C125" t="n">
-        <v>0.681455</v>
+        <v>0.688934</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6876100000000001</v>
+        <v>0.7171149999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.765505</v>
+        <v>0.764835</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6851429999999999</v>
+        <v>0.663113</v>
       </c>
       <c r="D126" t="n">
-        <v>0.685725</v>
+        <v>0.7063700000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.778214</v>
+        <v>0.770521</v>
       </c>
       <c r="C127" t="n">
-        <v>0.670879</v>
+        <v>0.673315</v>
       </c>
       <c r="D127" t="n">
-        <v>0.728617</v>
+        <v>0.716421</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.742846</v>
+        <v>0.767311</v>
       </c>
       <c r="C128" t="n">
-        <v>0.663808</v>
+        <v>0.680278</v>
       </c>
       <c r="D128" t="n">
-        <v>0.708359</v>
+        <v>0.727849</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.730593</v>
+        <v>0.763391</v>
       </c>
       <c r="C129" t="n">
-        <v>0.667053</v>
+        <v>0.695087</v>
       </c>
       <c r="D129" t="n">
-        <v>0.713228</v>
+        <v>0.744239</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.74417</v>
+        <v>0.849763</v>
       </c>
       <c r="C130" t="n">
-        <v>0.684851</v>
+        <v>0.751341</v>
       </c>
       <c r="D130" t="n">
-        <v>0.717751</v>
+        <v>0.745234</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.768054</v>
+        <v>0.832103</v>
       </c>
       <c r="C131" t="n">
-        <v>0.733484</v>
+        <v>0.731054</v>
       </c>
       <c r="D131" t="n">
-        <v>0.743802</v>
+        <v>0.739575</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.776802</v>
+        <v>0.834512</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7085050000000001</v>
+        <v>0.728009</v>
       </c>
       <c r="D132" t="n">
-        <v>0.713221</v>
+        <v>0.743614</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.740358</v>
+        <v>0.833218</v>
       </c>
       <c r="C133" t="n">
-        <v>0.696814</v>
+        <v>0.737269</v>
       </c>
       <c r="D133" t="n">
-        <v>0.720535</v>
+        <v>0.762188</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.75022</v>
+        <v>0.852387</v>
       </c>
       <c r="C134" t="n">
-        <v>0.764314</v>
+        <v>0.7212769999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.736317</v>
+        <v>0.756688</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.749113</v>
+        <v>0.790695</v>
       </c>
       <c r="C135" t="n">
-        <v>0.718391</v>
+        <v>0.726319</v>
       </c>
       <c r="D135" t="n">
-        <v>0.759176</v>
+        <v>0.79212</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.763769</v>
+        <v>0.79352</v>
       </c>
       <c r="C136" t="n">
-        <v>0.759852</v>
+        <v>0.736348</v>
       </c>
       <c r="D136" t="n">
-        <v>0.755915</v>
+        <v>0.7710630000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7589089999999999</v>
+        <v>0.815481</v>
       </c>
       <c r="C137" t="n">
-        <v>0.714541</v>
+        <v>0.744096</v>
       </c>
       <c r="D137" t="n">
-        <v>0.796383</v>
+        <v>0.815212</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9020629999999999</v>
+        <v>0.954286</v>
       </c>
       <c r="C138" t="n">
-        <v>0.749571</v>
+        <v>0.746235</v>
       </c>
       <c r="D138" t="n">
-        <v>0.825336</v>
+        <v>0.83658</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.914874</v>
+        <v>1.00211</v>
       </c>
       <c r="C139" t="n">
-        <v>0.750235</v>
+        <v>0.786996</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8258760000000001</v>
+        <v>0.844797</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9214909999999999</v>
+        <v>0.966215</v>
       </c>
       <c r="C140" t="n">
-        <v>0.748449</v>
+        <v>0.769893</v>
       </c>
       <c r="D140" t="n">
-        <v>0.826676</v>
+        <v>0.885935</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.918982</v>
+        <v>0.99185</v>
       </c>
       <c r="C141" t="n">
-        <v>0.779748</v>
+        <v>0.793597</v>
       </c>
       <c r="D141" t="n">
-        <v>0.838436</v>
+        <v>0.877499</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.913472</v>
+        <v>1.02423</v>
       </c>
       <c r="C142" t="n">
-        <v>0.772401</v>
+        <v>0.796445</v>
       </c>
       <c r="D142" t="n">
-        <v>0.830725</v>
+        <v>0.852182</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.925584</v>
+        <v>0.973409</v>
       </c>
       <c r="C143" t="n">
-        <v>0.787764</v>
+        <v>0.794646</v>
       </c>
       <c r="D143" t="n">
-        <v>0.85666</v>
+        <v>0.860761</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.184188</v>
+        <v>0.175349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199932</v>
+        <v>0.187024</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210236</v>
+        <v>0.196691</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183847</v>
+        <v>0.175709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200515</v>
+        <v>0.187661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210718</v>
+        <v>0.197266</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184437</v>
+        <v>0.176427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201423</v>
+        <v>0.188476</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21208</v>
+        <v>0.198635</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185244</v>
+        <v>0.1772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203083</v>
+        <v>0.190107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213874</v>
+        <v>0.200386</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.185793</v>
+        <v>0.178182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.204944</v>
+        <v>0.191957</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216189</v>
+        <v>0.202412</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187529</v>
+        <v>0.17984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.207168</v>
+        <v>0.194251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.220206</v>
+        <v>0.205438</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.189575</v>
+        <v>0.182066</v>
       </c>
       <c r="C8" t="n">
-        <v>0.210797</v>
+        <v>0.19724</v>
       </c>
       <c r="D8" t="n">
-        <v>0.226475</v>
+        <v>0.210228</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.193692</v>
+        <v>0.185921</v>
       </c>
       <c r="C9" t="n">
-        <v>0.216003</v>
+        <v>0.20095</v>
       </c>
       <c r="D9" t="n">
-        <v>0.207405</v>
+        <v>0.193838</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.190678</v>
+        <v>0.181375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.19863</v>
+        <v>0.186254</v>
       </c>
       <c r="D10" t="n">
-        <v>0.207443</v>
+        <v>0.19399</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.190676</v>
+        <v>0.181486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.199037</v>
+        <v>0.187455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.207675</v>
+        <v>0.195396</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.190972</v>
+        <v>0.182249</v>
       </c>
       <c r="C12" t="n">
-        <v>0.199476</v>
+        <v>0.187005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.207991</v>
+        <v>0.19463</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.190653</v>
+        <v>0.181675</v>
       </c>
       <c r="C13" t="n">
-        <v>0.199801</v>
+        <v>0.187368</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208206</v>
+        <v>0.194643</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.191095</v>
+        <v>0.181967</v>
       </c>
       <c r="C14" t="n">
-        <v>0.200178</v>
+        <v>0.187727</v>
       </c>
       <c r="D14" t="n">
-        <v>0.208665</v>
+        <v>0.1951</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.191295</v>
+        <v>0.182124</v>
       </c>
       <c r="C15" t="n">
-        <v>0.200806</v>
+        <v>0.188366</v>
       </c>
       <c r="D15" t="n">
-        <v>0.209295</v>
+        <v>0.195723</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.19142</v>
+        <v>0.183498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201406</v>
+        <v>0.189288</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209942</v>
+        <v>0.19681</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.193538</v>
+        <v>0.18277</v>
       </c>
       <c r="C17" t="n">
-        <v>0.205428</v>
+        <v>0.189798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.214298</v>
+        <v>0.197318</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.193909</v>
+        <v>0.183147</v>
       </c>
       <c r="C18" t="n">
-        <v>0.206291</v>
+        <v>0.19077</v>
       </c>
       <c r="D18" t="n">
-        <v>0.215392</v>
+        <v>0.19835</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194777</v>
+        <v>0.184172</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207557</v>
+        <v>0.192079</v>
       </c>
       <c r="D19" t="n">
-        <v>0.217238</v>
+        <v>0.200105</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.195733</v>
+        <v>0.185371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.208843</v>
+        <v>0.195008</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219137</v>
+        <v>0.203425</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.197377</v>
+        <v>0.187132</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211118</v>
+        <v>0.196384</v>
       </c>
       <c r="D21" t="n">
-        <v>0.222316</v>
+        <v>0.205341</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.199822</v>
+        <v>0.189661</v>
       </c>
       <c r="C22" t="n">
-        <v>0.213837</v>
+        <v>0.198947</v>
       </c>
       <c r="D22" t="n">
-        <v>0.227188</v>
+        <v>0.20879</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.203167</v>
+        <v>0.196266</v>
       </c>
       <c r="C23" t="n">
-        <v>0.218712</v>
+        <v>0.201799</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21124</v>
+        <v>0.199613</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.201731</v>
+        <v>0.20044</v>
       </c>
       <c r="C24" t="n">
-        <v>0.197571</v>
+        <v>0.189486</v>
       </c>
       <c r="D24" t="n">
-        <v>0.211593</v>
+        <v>0.201127</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.201934</v>
+        <v>0.200938</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1979</v>
+        <v>0.190071</v>
       </c>
       <c r="D25" t="n">
-        <v>0.211756</v>
+        <v>0.201356</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.201954</v>
+        <v>0.200583</v>
       </c>
       <c r="C26" t="n">
-        <v>0.198422</v>
+        <v>0.190727</v>
       </c>
       <c r="D26" t="n">
-        <v>0.212046</v>
+        <v>0.201788</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.202</v>
+        <v>0.200392</v>
       </c>
       <c r="C27" t="n">
-        <v>0.198962</v>
+        <v>0.190548</v>
       </c>
       <c r="D27" t="n">
-        <v>0.212509</v>
+        <v>0.20214</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.202192</v>
+        <v>0.199944</v>
       </c>
       <c r="C28" t="n">
-        <v>0.199619</v>
+        <v>0.191441</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213075</v>
+        <v>0.202297</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.202318</v>
+        <v>0.20058</v>
       </c>
       <c r="C29" t="n">
-        <v>0.200084</v>
+        <v>0.192149</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213573</v>
+        <v>0.202373</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.202547</v>
+        <v>0.201075</v>
       </c>
       <c r="C30" t="n">
-        <v>0.200956</v>
+        <v>0.192301</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214344</v>
+        <v>0.20336</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202896</v>
+        <v>0.202196</v>
       </c>
       <c r="C31" t="n">
-        <v>0.201852</v>
+        <v>0.193598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.215145</v>
+        <v>0.204512</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203471</v>
+        <v>0.202898</v>
       </c>
       <c r="C32" t="n">
-        <v>0.202986</v>
+        <v>0.195031</v>
       </c>
       <c r="D32" t="n">
-        <v>0.216362</v>
+        <v>0.204807</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.204109</v>
+        <v>0.203043</v>
       </c>
       <c r="C33" t="n">
-        <v>0.204331</v>
+        <v>0.196383</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217942</v>
+        <v>0.206755</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.20524</v>
+        <v>0.203617</v>
       </c>
       <c r="C34" t="n">
-        <v>0.205982</v>
+        <v>0.197438</v>
       </c>
       <c r="D34" t="n">
-        <v>0.219881</v>
+        <v>0.20897</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.206698</v>
+        <v>0.205226</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208097</v>
+        <v>0.200845</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222813</v>
+        <v>0.211751</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.209044</v>
+        <v>0.206475</v>
       </c>
       <c r="C36" t="n">
-        <v>0.211076</v>
+        <v>0.20346</v>
       </c>
       <c r="D36" t="n">
-        <v>0.227664</v>
+        <v>0.216484</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212694</v>
+        <v>0.210582</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215912</v>
+        <v>0.207</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222817</v>
+        <v>0.221698</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.226351</v>
+        <v>0.233943</v>
       </c>
       <c r="C38" t="n">
-        <v>0.217719</v>
+        <v>0.207949</v>
       </c>
       <c r="D38" t="n">
-        <v>0.222813</v>
+        <v>0.221466</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.226725</v>
+        <v>0.232931</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217831</v>
+        <v>0.210071</v>
       </c>
       <c r="D39" t="n">
-        <v>0.224568</v>
+        <v>0.221767</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226942</v>
+        <v>0.233231</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21868</v>
+        <v>0.211496</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225098</v>
+        <v>0.222704</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227441</v>
+        <v>0.233585</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220284</v>
+        <v>0.211259</v>
       </c>
       <c r="D41" t="n">
-        <v>0.226394</v>
+        <v>0.221021</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.227239</v>
+        <v>0.231718</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219878</v>
+        <v>0.213099</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226475</v>
+        <v>0.223594</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.228952</v>
+        <v>0.23156</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222624</v>
+        <v>0.213068</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228362</v>
+        <v>0.223708</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.229737</v>
+        <v>0.232844</v>
       </c>
       <c r="C44" t="n">
-        <v>0.22238</v>
+        <v>0.21412</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228457</v>
+        <v>0.223757</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.230173</v>
+        <v>0.232757</v>
       </c>
       <c r="C45" t="n">
-        <v>0.222637</v>
+        <v>0.214505</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229966</v>
+        <v>0.225307</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.231344</v>
+        <v>0.232894</v>
       </c>
       <c r="C46" t="n">
-        <v>0.224346</v>
+        <v>0.215524</v>
       </c>
       <c r="D46" t="n">
-        <v>0.230214</v>
+        <v>0.226324</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.231298</v>
+        <v>0.232703</v>
       </c>
       <c r="C47" t="n">
-        <v>0.227491</v>
+        <v>0.216317</v>
       </c>
       <c r="D47" t="n">
-        <v>0.232389</v>
+        <v>0.227455</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.232184</v>
+        <v>0.233684</v>
       </c>
       <c r="C48" t="n">
-        <v>0.228832</v>
+        <v>0.221472</v>
       </c>
       <c r="D48" t="n">
-        <v>0.235133</v>
+        <v>0.231462</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.23342</v>
+        <v>0.237014</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230864</v>
+        <v>0.221992</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238569</v>
+        <v>0.232791</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.235194</v>
+        <v>0.238348</v>
       </c>
       <c r="C50" t="n">
-        <v>0.234074</v>
+        <v>0.224659</v>
       </c>
       <c r="D50" t="n">
-        <v>0.240779</v>
+        <v>0.237269</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.238098</v>
+        <v>0.239118</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236635</v>
+        <v>0.230973</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2694</v>
+        <v>0.232777</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.242962</v>
+        <v>0.246344</v>
       </c>
       <c r="C52" t="n">
-        <v>0.243345</v>
+        <v>0.237925</v>
       </c>
       <c r="D52" t="n">
-        <v>0.270408</v>
+        <v>0.234197</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.277312</v>
+        <v>0.260145</v>
       </c>
       <c r="C53" t="n">
-        <v>0.266092</v>
+        <v>0.224527</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271153</v>
+        <v>0.233616</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.27721</v>
+        <v>0.257555</v>
       </c>
       <c r="C54" t="n">
-        <v>0.267712</v>
+        <v>0.227761</v>
       </c>
       <c r="D54" t="n">
-        <v>0.273038</v>
+        <v>0.23475</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.277921</v>
+        <v>0.26136</v>
       </c>
       <c r="C55" t="n">
-        <v>0.269285</v>
+        <v>0.227802</v>
       </c>
       <c r="D55" t="n">
-        <v>0.274455</v>
+        <v>0.235546</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.277624</v>
+        <v>0.261275</v>
       </c>
       <c r="C56" t="n">
-        <v>0.270166</v>
+        <v>0.228176</v>
       </c>
       <c r="D56" t="n">
-        <v>0.274929</v>
+        <v>0.236485</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.278054</v>
+        <v>0.260252</v>
       </c>
       <c r="C57" t="n">
-        <v>0.271293</v>
+        <v>0.229057</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275929</v>
+        <v>0.237598</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.27803</v>
+        <v>0.259727</v>
       </c>
       <c r="C58" t="n">
-        <v>0.272573</v>
+        <v>0.228989</v>
       </c>
       <c r="D58" t="n">
-        <v>0.277059</v>
+        <v>0.236393</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.278317</v>
+        <v>0.261179</v>
       </c>
       <c r="C59" t="n">
-        <v>0.273922</v>
+        <v>0.231808</v>
       </c>
       <c r="D59" t="n">
-        <v>0.278349</v>
+        <v>0.239116</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.278013</v>
+        <v>0.261566</v>
       </c>
       <c r="C60" t="n">
-        <v>0.275547</v>
+        <v>0.232177</v>
       </c>
       <c r="D60" t="n">
-        <v>0.281331</v>
+        <v>0.240212</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.278712</v>
+        <v>0.261681</v>
       </c>
       <c r="C61" t="n">
-        <v>0.276625</v>
+        <v>0.2349</v>
       </c>
       <c r="D61" t="n">
-        <v>0.281416</v>
+        <v>0.242668</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.279324</v>
+        <v>0.263796</v>
       </c>
       <c r="C62" t="n">
-        <v>0.27821</v>
+        <v>0.236581</v>
       </c>
       <c r="D62" t="n">
-        <v>0.285728</v>
+        <v>0.244731</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.281908</v>
+        <v>0.26432</v>
       </c>
       <c r="C63" t="n">
-        <v>0.280518</v>
+        <v>0.236547</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28675</v>
+        <v>0.247931</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2819</v>
+        <v>0.265678</v>
       </c>
       <c r="C64" t="n">
-        <v>0.284179</v>
+        <v>0.240671</v>
       </c>
       <c r="D64" t="n">
-        <v>0.291294</v>
+        <v>0.25113</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.283737</v>
+        <v>0.266908</v>
       </c>
       <c r="C65" t="n">
-        <v>0.288146</v>
+        <v>0.246807</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296996</v>
+        <v>0.258671</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.28823</v>
+        <v>0.273927</v>
       </c>
       <c r="C66" t="n">
-        <v>0.294535</v>
+        <v>0.253215</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302889</v>
+        <v>0.242079</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.308008</v>
+        <v>0.269219</v>
       </c>
       <c r="C67" t="n">
-        <v>0.314724</v>
+        <v>0.237872</v>
       </c>
       <c r="D67" t="n">
-        <v>0.305921</v>
+        <v>0.242247</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.314412</v>
+        <v>0.278426</v>
       </c>
       <c r="C68" t="n">
-        <v>0.31387</v>
+        <v>0.238324</v>
       </c>
       <c r="D68" t="n">
-        <v>0.305024</v>
+        <v>0.24257</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.301233</v>
+        <v>0.276915</v>
       </c>
       <c r="C69" t="n">
-        <v>0.317113</v>
+        <v>0.240034</v>
       </c>
       <c r="D69" t="n">
-        <v>0.307833</v>
+        <v>0.243833</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297988</v>
+        <v>0.274626</v>
       </c>
       <c r="C70" t="n">
-        <v>0.315944</v>
+        <v>0.241343</v>
       </c>
       <c r="D70" t="n">
-        <v>0.307059</v>
+        <v>0.244892</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.298006</v>
+        <v>0.274792</v>
       </c>
       <c r="C71" t="n">
-        <v>0.317851</v>
+        <v>0.241908</v>
       </c>
       <c r="D71" t="n">
-        <v>0.309078</v>
+        <v>0.244534</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.29814</v>
+        <v>0.274889</v>
       </c>
       <c r="C72" t="n">
-        <v>0.318145</v>
+        <v>0.242381</v>
       </c>
       <c r="D72" t="n">
-        <v>0.311314</v>
+        <v>0.245709</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.299591</v>
+        <v>0.278684</v>
       </c>
       <c r="C73" t="n">
-        <v>0.320764</v>
+        <v>0.244248</v>
       </c>
       <c r="D73" t="n">
-        <v>0.315634</v>
+        <v>0.247037</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.300252</v>
+        <v>0.275553</v>
       </c>
       <c r="C74" t="n">
-        <v>0.321385</v>
+        <v>0.245611</v>
       </c>
       <c r="D74" t="n">
-        <v>0.316888</v>
+        <v>0.248835</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.301846</v>
+        <v>0.276095</v>
       </c>
       <c r="C75" t="n">
-        <v>0.323974</v>
+        <v>0.246041</v>
       </c>
       <c r="D75" t="n">
-        <v>0.324083</v>
+        <v>0.249909</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.30545</v>
+        <v>0.281025</v>
       </c>
       <c r="C76" t="n">
-        <v>0.32709</v>
+        <v>0.249324</v>
       </c>
       <c r="D76" t="n">
-        <v>0.329616</v>
+        <v>0.253783</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.304512</v>
+        <v>0.278174</v>
       </c>
       <c r="C77" t="n">
-        <v>0.339173</v>
+        <v>0.251892</v>
       </c>
       <c r="D77" t="n">
-        <v>0.33071</v>
+        <v>0.256302</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.314136</v>
+        <v>0.279609</v>
       </c>
       <c r="C78" t="n">
-        <v>0.334411</v>
+        <v>0.253976</v>
       </c>
       <c r="D78" t="n">
-        <v>0.342106</v>
+        <v>0.262129</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.311527</v>
+        <v>0.282825</v>
       </c>
       <c r="C79" t="n">
-        <v>0.339373</v>
+        <v>0.259219</v>
       </c>
       <c r="D79" t="n">
-        <v>0.341702</v>
+        <v>0.267489</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.311019</v>
+        <v>0.286714</v>
       </c>
       <c r="C80" t="n">
-        <v>0.339157</v>
+        <v>0.265806</v>
       </c>
       <c r="D80" t="n">
-        <v>0.330541</v>
+        <v>0.25256</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.384623</v>
+        <v>0.298476</v>
       </c>
       <c r="C81" t="n">
-        <v>0.29749</v>
+        <v>0.243178</v>
       </c>
       <c r="D81" t="n">
-        <v>0.354965</v>
+        <v>0.253506</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.479231</v>
+        <v>0.298351</v>
       </c>
       <c r="C82" t="n">
-        <v>0.33021</v>
+        <v>0.239952</v>
       </c>
       <c r="D82" t="n">
-        <v>0.357281</v>
+        <v>0.251748</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.372515</v>
+        <v>0.299262</v>
       </c>
       <c r="C83" t="n">
-        <v>0.297824</v>
+        <v>0.24107</v>
       </c>
       <c r="D83" t="n">
-        <v>0.343771</v>
+        <v>0.25253</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.368898</v>
+        <v>0.299053</v>
       </c>
       <c r="C84" t="n">
-        <v>0.294861</v>
+        <v>0.24131</v>
       </c>
       <c r="D84" t="n">
-        <v>0.34414</v>
+        <v>0.253212</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.40566</v>
+        <v>0.298672</v>
       </c>
       <c r="C85" t="n">
-        <v>0.311015</v>
+        <v>0.241686</v>
       </c>
       <c r="D85" t="n">
-        <v>0.347699</v>
+        <v>0.254139</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.374407</v>
+        <v>0.298917</v>
       </c>
       <c r="C86" t="n">
-        <v>0.29988</v>
+        <v>0.24352</v>
       </c>
       <c r="D86" t="n">
-        <v>0.338672</v>
+        <v>0.256955</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.368525</v>
+        <v>0.300333</v>
       </c>
       <c r="C87" t="n">
-        <v>0.30192</v>
+        <v>0.245173</v>
       </c>
       <c r="D87" t="n">
-        <v>0.342396</v>
+        <v>0.256759</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.367948</v>
+        <v>0.300242</v>
       </c>
       <c r="C88" t="n">
-        <v>0.309774</v>
+        <v>0.246514</v>
       </c>
       <c r="D88" t="n">
-        <v>0.37813</v>
+        <v>0.258607</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.393429</v>
+        <v>0.303651</v>
       </c>
       <c r="C89" t="n">
-        <v>0.339699</v>
+        <v>0.246733</v>
       </c>
       <c r="D89" t="n">
-        <v>0.387585</v>
+        <v>0.259719</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.398541</v>
+        <v>0.303319</v>
       </c>
       <c r="C90" t="n">
-        <v>0.317969</v>
+        <v>0.249823</v>
       </c>
       <c r="D90" t="n">
-        <v>0.354607</v>
+        <v>0.263257</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.363869</v>
+        <v>0.303656</v>
       </c>
       <c r="C91" t="n">
-        <v>0.322497</v>
+        <v>0.251152</v>
       </c>
       <c r="D91" t="n">
-        <v>0.379869</v>
+        <v>0.264396</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.431752</v>
+        <v>0.304458</v>
       </c>
       <c r="C92" t="n">
-        <v>0.349677</v>
+        <v>0.255436</v>
       </c>
       <c r="D92" t="n">
-        <v>0.400075</v>
+        <v>0.269742</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.427839</v>
+        <v>0.30846</v>
       </c>
       <c r="C93" t="n">
-        <v>0.36408</v>
+        <v>0.258393</v>
       </c>
       <c r="D93" t="n">
-        <v>0.414976</v>
+        <v>0.277726</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.479536</v>
+        <v>0.309377</v>
       </c>
       <c r="C94" t="n">
-        <v>0.391726</v>
+        <v>0.262273</v>
       </c>
       <c r="D94" t="n">
-        <v>0.498627</v>
+        <v>0.369362</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6361019999999999</v>
+        <v>0.49403</v>
       </c>
       <c r="C95" t="n">
-        <v>0.420147</v>
+        <v>0.385928</v>
       </c>
       <c r="D95" t="n">
-        <v>0.417328</v>
+        <v>0.366692</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.522334</v>
+        <v>0.438613</v>
       </c>
       <c r="C96" t="n">
-        <v>0.385634</v>
+        <v>0.393616</v>
       </c>
       <c r="D96" t="n">
-        <v>0.43939</v>
+        <v>0.381222</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5234529999999999</v>
+        <v>0.458271</v>
       </c>
       <c r="C97" t="n">
-        <v>0.388219</v>
+        <v>0.393463</v>
       </c>
       <c r="D97" t="n">
-        <v>0.386571</v>
+        <v>0.379319</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.473172</v>
+        <v>0.458533</v>
       </c>
       <c r="C98" t="n">
-        <v>0.372407</v>
+        <v>0.40308</v>
       </c>
       <c r="D98" t="n">
-        <v>0.391581</v>
+        <v>0.387745</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.501925</v>
+        <v>0.46322</v>
       </c>
       <c r="C99" t="n">
-        <v>0.387006</v>
+        <v>0.38238</v>
       </c>
       <c r="D99" t="n">
-        <v>0.40554</v>
+        <v>0.371524</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.515127</v>
+        <v>0.441294</v>
       </c>
       <c r="C100" t="n">
-        <v>0.410153</v>
+        <v>0.400197</v>
       </c>
       <c r="D100" t="n">
-        <v>0.463313</v>
+        <v>0.388253</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.588903</v>
+        <v>0.464383</v>
       </c>
       <c r="C101" t="n">
-        <v>0.488474</v>
+        <v>0.402242</v>
       </c>
       <c r="D101" t="n">
-        <v>0.496944</v>
+        <v>0.392272</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.632636</v>
+        <v>0.473288</v>
       </c>
       <c r="C102" t="n">
-        <v>0.471447</v>
+        <v>0.403147</v>
       </c>
       <c r="D102" t="n">
-        <v>0.466294</v>
+        <v>0.394631</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.598819</v>
+        <v>0.466629</v>
       </c>
       <c r="C103" t="n">
-        <v>0.485819</v>
+        <v>0.405107</v>
       </c>
       <c r="D103" t="n">
-        <v>0.446178</v>
+        <v>0.392854</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.513701</v>
+        <v>0.467677</v>
       </c>
       <c r="C104" t="n">
-        <v>0.475015</v>
+        <v>0.405223</v>
       </c>
       <c r="D104" t="n">
-        <v>0.457176</v>
+        <v>0.399544</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.539251</v>
+        <v>0.471615</v>
       </c>
       <c r="C105" t="n">
-        <v>0.50402</v>
+        <v>0.395365</v>
       </c>
       <c r="D105" t="n">
-        <v>0.495305</v>
+        <v>0.388587</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5645250000000001</v>
+        <v>0.450381</v>
       </c>
       <c r="C106" t="n">
-        <v>0.496712</v>
+        <v>0.399153</v>
       </c>
       <c r="D106" t="n">
-        <v>0.473116</v>
+        <v>0.391994</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.60039</v>
+        <v>0.453888</v>
       </c>
       <c r="C107" t="n">
-        <v>0.469929</v>
+        <v>0.418039</v>
       </c>
       <c r="D107" t="n">
-        <v>0.485955</v>
+        <v>0.410861</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.593387</v>
+        <v>0.471544</v>
       </c>
       <c r="C108" t="n">
-        <v>0.492708</v>
+        <v>0.422086</v>
       </c>
       <c r="D108" t="n">
-        <v>0.614392</v>
+        <v>0.665602</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.598162</v>
+        <v>0.483113</v>
       </c>
       <c r="C109" t="n">
-        <v>0.480843</v>
+        <v>0.429294</v>
       </c>
       <c r="D109" t="n">
-        <v>0.582461</v>
+        <v>0.666677</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.676153</v>
+        <v>0.775837</v>
       </c>
       <c r="C110" t="n">
-        <v>0.596382</v>
+        <v>0.64578</v>
       </c>
       <c r="D110" t="n">
-        <v>0.602003</v>
+        <v>0.6670700000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7117520000000001</v>
+        <v>0.776006</v>
       </c>
       <c r="C111" t="n">
-        <v>0.597209</v>
+        <v>0.647329</v>
       </c>
       <c r="D111" t="n">
-        <v>0.633529</v>
+        <v>0.667901</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.724371</v>
+        <v>0.774533</v>
       </c>
       <c r="C112" t="n">
-        <v>0.595996</v>
+        <v>0.667866</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665347</v>
+        <v>0.669991</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.746207</v>
+        <v>0.7779239999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.638684</v>
+        <v>0.666645</v>
       </c>
       <c r="D113" t="n">
-        <v>0.605463</v>
+        <v>0.671105</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.668422</v>
+        <v>0.762113</v>
       </c>
       <c r="C114" t="n">
-        <v>0.540327</v>
+        <v>0.666863</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6392910000000001</v>
+        <v>0.65867</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.663004</v>
+        <v>0.766662</v>
       </c>
       <c r="C115" t="n">
-        <v>0.582897</v>
+        <v>0.668725</v>
       </c>
       <c r="D115" t="n">
-        <v>0.627464</v>
+        <v>0.673064</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.73186</v>
+        <v>0.779982</v>
       </c>
       <c r="C116" t="n">
-        <v>0.632792</v>
+        <v>0.6687340000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.661704</v>
+        <v>0.675352</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.773015</v>
+        <v>0.778053</v>
       </c>
       <c r="C117" t="n">
-        <v>0.696115</v>
+        <v>0.654771</v>
       </c>
       <c r="D117" t="n">
-        <v>0.726411</v>
+        <v>0.6781779999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.69846</v>
+        <v>0.775558</v>
       </c>
       <c r="C118" t="n">
-        <v>0.575184</v>
+        <v>0.675673</v>
       </c>
       <c r="D118" t="n">
-        <v>0.61216</v>
+        <v>0.680281</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.687133</v>
+        <v>0.778479</v>
       </c>
       <c r="C119" t="n">
-        <v>0.608257</v>
+        <v>0.67744</v>
       </c>
       <c r="D119" t="n">
-        <v>0.627062</v>
+        <v>0.68524</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6987139999999999</v>
+        <v>0.778376</v>
       </c>
       <c r="C120" t="n">
-        <v>0.618054</v>
+        <v>0.681576</v>
       </c>
       <c r="D120" t="n">
-        <v>0.657673</v>
+        <v>0.67776</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.684198</v>
+        <v>0.786273</v>
       </c>
       <c r="C121" t="n">
-        <v>0.603236</v>
+        <v>0.686026</v>
       </c>
       <c r="D121" t="n">
-        <v>0.646862</v>
+        <v>0.695916</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.71193</v>
+        <v>0.78045</v>
       </c>
       <c r="C122" t="n">
-        <v>0.59297</v>
+        <v>0.6796219999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.647707</v>
+        <v>0.704391</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.664592</v>
+        <v>0.771303</v>
       </c>
       <c r="C123" t="n">
-        <v>0.642281</v>
+        <v>0.703156</v>
       </c>
       <c r="D123" t="n">
-        <v>0.74168</v>
+        <v>0.778034</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.841121</v>
+        <v>1.02833</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6899380000000001</v>
+        <v>0.762533</v>
       </c>
       <c r="D124" t="n">
-        <v>0.74822</v>
+        <v>0.779309</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.775206</v>
+        <v>1.03154</v>
       </c>
       <c r="C125" t="n">
-        <v>0.688934</v>
+        <v>0.762216</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7171149999999999</v>
+        <v>0.780245</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.764835</v>
+        <v>1.03098</v>
       </c>
       <c r="C126" t="n">
-        <v>0.663113</v>
+        <v>0.7710050000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7063700000000001</v>
+        <v>0.781908</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.770521</v>
+        <v>1.0321</v>
       </c>
       <c r="C127" t="n">
-        <v>0.673315</v>
+        <v>0.772313</v>
       </c>
       <c r="D127" t="n">
-        <v>0.716421</v>
+        <v>0.783372</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.767311</v>
+        <v>1.02544</v>
       </c>
       <c r="C128" t="n">
-        <v>0.680278</v>
+        <v>0.773865</v>
       </c>
       <c r="D128" t="n">
-        <v>0.727849</v>
+        <v>0.786413</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.763391</v>
+        <v>1.03483</v>
       </c>
       <c r="C129" t="n">
-        <v>0.695087</v>
+        <v>0.775452</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744239</v>
+        <v>0.787206</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.849763</v>
+        <v>1.03633</v>
       </c>
       <c r="C130" t="n">
-        <v>0.751341</v>
+        <v>0.773124</v>
       </c>
       <c r="D130" t="n">
-        <v>0.745234</v>
+        <v>0.784342</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.832103</v>
+        <v>1.01509</v>
       </c>
       <c r="C131" t="n">
-        <v>0.731054</v>
+        <v>0.781447</v>
       </c>
       <c r="D131" t="n">
-        <v>0.739575</v>
+        <v>0.793388</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.834512</v>
+        <v>1.01688</v>
       </c>
       <c r="C132" t="n">
-        <v>0.728009</v>
+        <v>0.784068</v>
       </c>
       <c r="D132" t="n">
-        <v>0.743614</v>
+        <v>0.796866</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.833218</v>
+        <v>1.03077</v>
       </c>
       <c r="C133" t="n">
-        <v>0.737269</v>
+        <v>0.788125</v>
       </c>
       <c r="D133" t="n">
-        <v>0.762188</v>
+        <v>0.802072</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.852387</v>
+        <v>1.0368</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7212769999999999</v>
+        <v>0.7931009999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.756688</v>
+        <v>0.8088070000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.790695</v>
+        <v>1.03868</v>
       </c>
       <c r="C135" t="n">
-        <v>0.726319</v>
+        <v>0.793357</v>
       </c>
       <c r="D135" t="n">
-        <v>0.79212</v>
+        <v>0.817874</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.79352</v>
+        <v>1.04114</v>
       </c>
       <c r="C136" t="n">
-        <v>0.736348</v>
+        <v>0.80887</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7710630000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.815481</v>
+        <v>1.04851</v>
       </c>
       <c r="C137" t="n">
-        <v>0.744096</v>
+        <v>0.820871</v>
       </c>
       <c r="D137" t="n">
-        <v>0.815212</v>
+        <v>0.829804</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.954286</v>
+        <v>1.24905</v>
       </c>
       <c r="C138" t="n">
-        <v>0.746235</v>
+        <v>0.817822</v>
       </c>
       <c r="D138" t="n">
-        <v>0.83658</v>
+        <v>0.8314589999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.00211</v>
+        <v>1.26216</v>
       </c>
       <c r="C139" t="n">
-        <v>0.786996</v>
+        <v>0.81767</v>
       </c>
       <c r="D139" t="n">
-        <v>0.844797</v>
+        <v>0.833152</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.966215</v>
+        <v>1.26425</v>
       </c>
       <c r="C140" t="n">
-        <v>0.769893</v>
+        <v>0.818595</v>
       </c>
       <c r="D140" t="n">
-        <v>0.885935</v>
+        <v>0.83104</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.99185</v>
+        <v>1.26554</v>
       </c>
       <c r="C141" t="n">
-        <v>0.793597</v>
+        <v>0.821733</v>
       </c>
       <c r="D141" t="n">
-        <v>0.877499</v>
+        <v>0.836039</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.02423</v>
+        <v>1.2634</v>
       </c>
       <c r="C142" t="n">
-        <v>0.796445</v>
+        <v>0.820222</v>
       </c>
       <c r="D142" t="n">
-        <v>0.852182</v>
+        <v>0.8360610000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.973409</v>
+        <v>1.26458</v>
       </c>
       <c r="C143" t="n">
-        <v>0.794646</v>
+        <v>0.82473</v>
       </c>
       <c r="D143" t="n">
-        <v>0.860761</v>
+        <v>0.84179</v>
       </c>
     </row>
   </sheetData>
